--- a/programs/autoencoder/saving_pop.xlsx
+++ b/programs/autoencoder/saving_pop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>38.19085311889648</v>
+        <v>36.12636184692383</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37.9950065612793</v>
+        <v>36.50425720214844</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37.13859939575195</v>
+        <v>36.10788345336914</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,623 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37.79331588745117</v>
+        <v>36.04693222045898</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>36.12524032592773</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>37.00746536254883</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>35.84638214111328</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>36.17728805541992</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>36.19512557983398</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>36.15726470947266</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>35.95005035400391</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>36.51827621459961</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>36.07527923583984</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>36.04139709472656</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>36.21749877929688</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>36.14309692382812</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>36.39589309692383</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>36.00814819335938</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>36.10315322875977</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>36.17750549316406</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>36.14679718017578</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>35.96438980102539</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>36.18735122680664</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>36.02453231811523</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>36.21144104003906</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>36.10215759277344</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>36.15302658081055</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>36.38677597045898</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>36.1312255859375</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>36.24215698242188</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>36.10340881347656</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>37.01380920410156</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>36.13336181640625</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>35.93561935424805</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>36.09884262084961</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36.06305313110352</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>35.96199417114258</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>36.10710144042969</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>36.17743301391602</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>36.06788635253906</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>36.16391372680664</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>36.1546745300293</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>36.45171737670898</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>36.15017700195312</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>36.17366027832031</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>36.02187728881836</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>36.12023544311523</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>36.09832763671875</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>36.34340667724609</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>36.15385818481445</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>36.19589996337891</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>36.11259841918945</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>36.1994514465332</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>36.16414260864258</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>36.18706512451172</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>36.11075210571289</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>36.15106582641602</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>36.10028076171875</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>36.21496200561523</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>36.13142013549805</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>36.1119384765625</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>36.88168716430664</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>36.18439102172852</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>36.21491622924805</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>36.14644241333008</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>36.21175765991211</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>35.92663192749023</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>36.10093688964844</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>36.01679992675781</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>37.10117340087891</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>36.92751693725586</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>36.56178665161133</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>36.02743911743164</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>35.95926284790039</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>36.16551208496094</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>36.08974075317383</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>36.152099609375</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>36.05380249023438</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>35.99873733520508</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>36.09275817871094</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>36.33333969116211</v>
       </c>
     </row>
   </sheetData>
